--- a/sh expense.xlsx
+++ b/sh expense.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Food</t>
   </si>
@@ -31,6 +31,30 @@
   </si>
   <si>
     <t>Music</t>
+  </si>
+  <si>
+    <t>May Expense Report</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>June Expense Report</t>
+  </si>
+  <si>
+    <t>June Bank Statement</t>
+  </si>
+  <si>
+    <t>Opening Balance</t>
+  </si>
+  <si>
+    <t>Credited Amount</t>
+  </si>
+  <si>
+    <t>Debit Amount</t>
+  </si>
+  <si>
+    <t>Remaining Balance</t>
   </si>
 </sst>
 </file>
@@ -54,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -62,15 +86,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,99 +549,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="7"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="F3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="11">
         <v>245.7</v>
       </c>
-      <c r="B2">
+      <c r="B4" s="2">
         <v>614.20000000000005</v>
       </c>
-      <c r="C2">
+      <c r="C4" s="2">
         <v>999</v>
       </c>
-      <c r="D2">
+      <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E4" s="2">
         <v>4000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="11">
         <v>326</v>
       </c>
-      <c r="B3">
+      <c r="B5" s="2">
         <v>913</v>
       </c>
-      <c r="C3">
+      <c r="C5" s="2">
         <v>1059</v>
       </c>
-      <c r="D3">
+      <c r="D5" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="E5" s="2"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="11">
         <v>221</v>
       </c>
-      <c r="B4">
+      <c r="B6" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="11">
         <v>360</v>
       </c>
-      <c r="B5">
+      <c r="B7" s="2">
         <v>274</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <f>SUM(A2:A5)</f>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A8" s="12">
+        <f>SUM(A4:A7)</f>
         <v>1152.7</v>
       </c>
-      <c r="B6">
-        <f>SUM(B2:B5)</f>
+      <c r="B8" s="13">
+        <f>SUM(B4:B7)</f>
         <v>2801.2</v>
       </c>
-      <c r="C6">
-        <f>SUM(C2:C4)</f>
+      <c r="C8" s="13">
+        <f>SUM(C4:C6)</f>
         <v>2058</v>
       </c>
-      <c r="D6">
+      <c r="D8" s="13">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="E8" s="13">
         <v>4000</v>
       </c>
+      <c r="F8" s="14">
+        <f>SUM(A8:E8)</f>
+        <v>10031.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="8"/>
+      <c r="I12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2">
+        <v>21019</v>
+      </c>
+      <c r="J13" s="2">
+        <v>25000</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
+        <v>46019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="11">
+        <v>80</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="11">
+        <v>2780</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="11"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A18" s="12">
+        <f>SUM(A14:A17)</f>
+        <v>2860</v>
+      </c>
+      <c r="B18" s="13">
+        <f>SUM(B14:B17)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <f>SUM(C14:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14">
+        <f>SUM(A18:E18)</f>
+        <v>2860</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A11:E12"/>
+    <mergeCell ref="I11:L11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/sh expense.xlsx
+++ b/sh expense.xlsx
@@ -227,23 +227,11 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -255,6 +243,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +552,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -569,246 +569,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="7"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="11">
+      <c r="A4" s="7">
         <v>245.7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>614.20000000000005</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>4000</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>326</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>913</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1059</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="11">
+      <c r="A6" s="7">
         <v>221</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1000</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="8"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>360</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>274</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A8" s="12">
+      <c r="A8" s="8">
         <f>SUM(A4:A7)</f>
         <v>1152.7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <f>SUM(B4:B7)</f>
         <v>2801.2</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="9">
         <f>SUM(C4:C6)</f>
         <v>2058</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <v>20</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="9">
         <v>4000</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <f>SUM(A8:E8)</f>
         <v>10031.9</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:12">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="I11" s="1" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="3"/>
+      <c r="I11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="8"/>
-      <c r="I12" s="2" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="4"/>
+      <c r="I12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>21019</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>25000</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <v>46019</v>
+      <c r="K13" s="10">
+        <v>-3145</v>
+      </c>
+      <c r="L13" s="1">
+        <f>SUM(I13:K13)</f>
+        <v>42874</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="11">
+      <c r="A14" s="7">
         <v>80</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="11">
-        <v>2780</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="8"/>
+      <c r="A15" s="7">
+        <v>2705</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="11"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="7">
+        <v>320</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="12">
+      <c r="A18" s="8">
         <f>SUM(A14:A17)</f>
-        <v>2860</v>
-      </c>
-      <c r="B18" s="13">
+        <v>3105</v>
+      </c>
+      <c r="B18" s="9">
         <f>SUM(B14:B17)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="9">
         <f>SUM(C14:C16)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14">
+      <c r="D18" s="9">
+        <f>SUM(D16,D15,D14)</f>
+        <v>40</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10">
         <f>SUM(A18:E18)</f>
-        <v>2860</v>
+        <v>3145</v>
       </c>
     </row>
   </sheetData>

--- a/sh expense.xlsx
+++ b/sh expense.xlsx
@@ -552,7 +552,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -767,7 +767,9 @@
       <c r="D14" s="1">
         <v>10</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>8000</v>
+      </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:12">
@@ -819,10 +821,12 @@
         <f>SUM(D16,D15,D14)</f>
         <v>40</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9">
+        <v>8000</v>
+      </c>
       <c r="F18" s="10">
         <f>SUM(A18:E18)</f>
-        <v>3145</v>
+        <v>11145</v>
       </c>
     </row>
   </sheetData>

--- a/sh expense.xlsx
+++ b/sh expense.xlsx
@@ -549,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -751,24 +751,29 @@
         <v>25000</v>
       </c>
       <c r="K13" s="10">
-        <v>-3145</v>
+        <f>-F19</f>
+        <v>-12819</v>
       </c>
       <c r="L13" s="1">
         <f>SUM(I13:K13)</f>
-        <v>42874</v>
+        <v>33200</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="7">
         <v>80</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1">
+        <v>399</v>
+      </c>
+      <c r="C14" s="1">
+        <v>999</v>
+      </c>
       <c r="D14" s="1">
         <v>10</v>
       </c>
       <c r="E14" s="1">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -797,36 +802,47 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7"/>
+      <c r="A17" s="7">
+        <v>77</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>699</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="8">
+    <row r="18" spans="1:6">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A19" s="8">
         <f>SUM(A14:A17)</f>
-        <v>3105</v>
-      </c>
-      <c r="B18" s="9">
-        <f>SUM(B14:B17)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="9">
+        <v>3182</v>
+      </c>
+      <c r="B19" s="9">
+        <f>SUM(B14:B18)</f>
+        <v>399</v>
+      </c>
+      <c r="C19" s="9">
         <f>SUM(C14:C16)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <f>SUM(D16,D15,D14)</f>
-        <v>40</v>
-      </c>
-      <c r="E18" s="9">
-        <v>8000</v>
-      </c>
-      <c r="F18" s="10">
-        <f>SUM(A18:E18)</f>
-        <v>11145</v>
+        <v>999</v>
+      </c>
+      <c r="D19" s="9">
+        <f>SUM(D14:D17)</f>
+        <v>739</v>
+      </c>
+      <c r="E19" s="9">
+        <f>SUM(E14:E18)</f>
+        <v>7500</v>
+      </c>
+      <c r="F19" s="10">
+        <f>SUM(A19:E19)</f>
+        <v>12819</v>
       </c>
     </row>
   </sheetData>

--- a/sh expense.xlsx
+++ b/sh expense.xlsx
@@ -549,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -726,7 +726,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -741,26 +741,26 @@
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="1">
         <v>21019</v>
       </c>
       <c r="J13" s="1">
-        <v>25000</v>
+        <v>44000</v>
       </c>
       <c r="K13" s="10">
-        <f>-F19</f>
-        <v>-12819</v>
+        <f>-F23</f>
+        <v>-22706</v>
       </c>
       <c r="L13" s="1">
         <f>SUM(I13:K13)</f>
-        <v>33200</v>
+        <v>42313</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="7">
+      <c r="A14" s="1">
         <v>80</v>
       </c>
       <c r="B14" s="1">
@@ -775,74 +775,126 @@
       <c r="E14" s="1">
         <v>7500</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7">
+      <c r="A15" s="1">
         <v>2705</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1">
+        <v>700</v>
+      </c>
+      <c r="C15" s="1">
+        <v>487</v>
+      </c>
       <c r="D15" s="1">
         <v>10</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="7">
+      <c r="A16" s="1">
         <v>320</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1">
+        <v>1947</v>
+      </c>
+      <c r="C16" s="1">
+        <v>999</v>
+      </c>
       <c r="D16" s="1">
         <v>20</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7">
+      <c r="A17" s="1">
         <v>77</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>5000</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <v>699</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>180</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>25</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="8">
-        <f>SUM(A14:A17)</f>
-        <v>3182</v>
-      </c>
-      <c r="B19" s="9">
-        <f>SUM(B14:B18)</f>
-        <v>399</v>
-      </c>
-      <c r="C19" s="9">
-        <f>SUM(C14:C16)</f>
-        <v>999</v>
-      </c>
-      <c r="D19" s="9">
-        <f>SUM(D14:D17)</f>
-        <v>739</v>
-      </c>
-      <c r="E19" s="9">
-        <f>SUM(E14:E18)</f>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>290</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>259</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <f>SUM(A14:A22)</f>
+        <v>3911</v>
+      </c>
+      <c r="B23" s="1">
+        <f>SUM(B14:B22)</f>
+        <v>8046</v>
+      </c>
+      <c r="C23" s="1">
+        <f>SUM(C14:C22)</f>
+        <v>2485</v>
+      </c>
+      <c r="D23" s="1">
+        <f>SUM(D14:D22)</f>
+        <v>764</v>
+      </c>
+      <c r="E23" s="1">
+        <f>SUM(E14:E22)</f>
         <v>7500</v>
       </c>
-      <c r="F19" s="10">
-        <f>SUM(A19:E19)</f>
-        <v>12819</v>
+      <c r="F23" s="1">
+        <f>SUM(A23:E23)</f>
+        <v>22706</v>
       </c>
     </row>
   </sheetData>

--- a/sh expense.xlsx
+++ b/sh expense.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Food</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Remaining Balance</t>
+  </si>
+  <si>
+    <t>JULY expense report</t>
+  </si>
+  <si>
+    <t>July Bank Statement</t>
+  </si>
+  <si>
+    <t>Music/paytm</t>
   </si>
 </sst>
 </file>
@@ -78,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -221,11 +230,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -253,6 +271,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -549,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -560,7 +581,7 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -748,15 +769,15 @@
         <v>21019</v>
       </c>
       <c r="J13" s="1">
-        <v>44000</v>
+        <v>44213</v>
       </c>
       <c r="K13" s="10">
-        <f>-F23</f>
-        <v>-22706</v>
+        <f>-F25</f>
+        <v>-25360</v>
       </c>
       <c r="L13" s="1">
         <f>SUM(I13:K13)</f>
-        <v>42313</v>
+        <v>39872</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -809,7 +830,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>77</v>
       </c>
@@ -823,11 +844,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>180</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <v>25</v>
@@ -835,73 +858,226 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>290</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1">
+        <v>1170</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>259</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1">
+        <v>500</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>300</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>229</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <f>SUM(A14:A22)</f>
-        <v>3911</v>
-      </c>
-      <c r="B23" s="1">
+        <v>450</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
+        <f>SUM(A14:A23)</f>
+        <v>4890</v>
+      </c>
+      <c r="B25" s="1">
         <f>SUM(B14:B22)</f>
-        <v>8046</v>
-      </c>
-      <c r="C23" s="1">
+        <v>9721</v>
+      </c>
+      <c r="C25" s="1">
         <f>SUM(C14:C22)</f>
         <v>2485</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D25" s="1">
         <f>SUM(D14:D22)</f>
         <v>764</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E25" s="1">
         <f>SUM(E14:E22)</f>
         <v>7500</v>
       </c>
-      <c r="F23" s="1">
-        <f>SUM(A23:E23)</f>
-        <v>22706</v>
+      <c r="F25" s="1">
+        <f>SUM(A25:E25)</f>
+        <v>25360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
+        <v>230</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
+        <v>600</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1">
+        <v>500</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="I32" s="1">
+        <v>39873</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5</v>
+      </c>
+      <c r="K32" s="10">
+        <f>-F36</f>
+        <v>-1330</v>
+      </c>
+      <c r="L32" s="1">
+        <f>SUM(I32:K32)</f>
+        <v>38548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <f>SUM(A31:A35)</f>
+        <v>230</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1">
+        <f>SUM(D31:D35)</f>
+        <v>1100</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1">
+        <f>SUM(A36:E36)</f>
+        <v>1330</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A11:E12"/>
     <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="I30:L30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
